--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.010920-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.010920-1.xlsx_with_dialog_acts.xlsx
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3957,12 +3957,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5931,12 +5931,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6401,12 +6401,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7837,12 +7837,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7879,12 +7879,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8849,12 +8849,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9101,12 +9101,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9143,12 +9143,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10235,12 +10235,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10827,12 +10827,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11247,12 +11247,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11331,12 +11331,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11625,12 +11625,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12003,12 +12003,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12381,12 +12381,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
